--- a/instances/Escola_A.xlsx
+++ b/instances/Escola_A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="56">
   <si>
     <t xml:space="preserve">Matéria:</t>
   </si>
@@ -47,563 +47,112 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
+    <t xml:space="preserve">Professor 2</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
+    <t xml:space="preserve">Professor 3</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
+    <t xml:space="preserve">Professor 4</t>
   </si>
   <si>
     <t xml:space="preserve">e</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
+    <t xml:space="preserve">Professor 5</t>
   </si>
   <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
+    <t xml:space="preserve">Professor 6</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
+    <t xml:space="preserve">Professor 7</t>
   </si>
   <si>
     <t xml:space="preserve">h</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
+    <t xml:space="preserve">Professor 8</t>
   </si>
   <si>
     <t xml:space="preserve">i</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9</t>
-    </r>
+    <t xml:space="preserve">Professor 9</t>
   </si>
   <si>
     <t xml:space="preserve">j</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
+    <t xml:space="preserve">Professor 10</t>
   </si>
   <si>
     <t xml:space="preserve">k</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Professor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">27</t>
-    </r>
+    <t xml:space="preserve">Professor 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor 27</t>
   </si>
   <si>
     <t xml:space="preserve">Horários de Inicio de aulas a cada dia.</t>
@@ -653,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -674,11 +223,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -728,7 +272,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,7 +299,7 @@
   </sheetPr>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -942,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -1096,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5</v>
@@ -1124,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2</v>
@@ -1208,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
@@ -1250,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>5</v>
@@ -1278,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2</v>
@@ -1362,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
@@ -1404,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
@@ -1418,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3</v>
@@ -1446,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>5</v>
@@ -1488,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
@@ -1530,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2</v>
@@ -1558,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -1572,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>3</v>
@@ -1600,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>5</v>
@@ -1642,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -1684,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>2</v>
@@ -1712,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -1726,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2</v>
@@ -1740,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>5</v>
@@ -1782,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2</v>
@@ -1796,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>2</v>
@@ -1824,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>3</v>
@@ -1838,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>3</v>
@@ -1852,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>3</v>
@@ -1880,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>2</v>
@@ -1894,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
@@ -1908,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2</v>
@@ -1922,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>5</v>
@@ -1964,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2</v>
@@ -1978,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2</v>
@@ -2006,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>3</v>
@@ -2020,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>3</v>
@@ -2034,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>3</v>
@@ -2062,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>2</v>
@@ -2076,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2</v>
@@ -2090,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>2</v>
@@ -2104,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
@@ -2118,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2</v>
@@ -2132,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2</v>
@@ -2146,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>4</v>
@@ -2160,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>3</v>
@@ -2202,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>2</v>
@@ -2216,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
@@ -2230,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>3</v>
@@ -2244,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>2</v>
@@ -2258,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
@@ -2272,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>2</v>
@@ -2286,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -2300,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2</v>
@@ -2314,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>4</v>
@@ -2328,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>4</v>
@@ -2342,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>4</v>
@@ -2356,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>1</v>
@@ -2370,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>3</v>
@@ -2384,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2</v>
@@ -2398,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -2412,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>2</v>
@@ -2426,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2</v>
@@ -2440,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>3</v>
@@ -2454,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>4</v>
@@ -2482,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>3</v>
@@ -2496,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>5</v>
@@ -2510,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>2</v>
@@ -2524,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2</v>
@@ -2538,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2</v>
@@ -2552,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2</v>
@@ -2566,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>1</v>
@@ -2580,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>1</v>
@@ -2594,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2</v>
@@ -2608,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
@@ -2644,7 +2188,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,14 +2239,14 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -2712,21 +2256,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2281,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,7 +2292,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,7 +2303,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,7 +2314,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,7 +2325,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2336,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,7 +2347,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2358,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2369,7 @@
         <v>0.409722222222222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,7 +2380,7 @@
         <v>0.409722222222222</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +2391,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +2402,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2413,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,7 +2424,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,304 +2435,304 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>0.409722222222222</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0.409722222222222</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +2754,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3223,13 +2767,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +2784,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +2795,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,7 +2806,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +2817,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,7 +2828,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +2839,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,7 +2850,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +2861,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +2872,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +2883,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +2894,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +2905,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,7 +2916,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,7 +2927,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,7 +2938,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,7 +2949,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +2960,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +2971,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +2982,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +2993,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,7 +3004,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,7 +3015,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,7 +3026,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,7 +3037,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,7 +3048,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3059,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,7 +3070,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3081,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3102,7 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -3572,21 +3116,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3141,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3152,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +3163,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3174,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3185,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,7 +3196,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,7 +3207,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,7 +3218,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,7 +3229,7 @@
         <v>0.409722222222222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +3240,7 @@
         <v>0.409722222222222</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3251,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,7 +3262,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,7 +3273,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,7 +3284,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,304 +3295,304 @@
         <v>0.444444444444444</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>0.409722222222222</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0.326388888888889</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0.361111111111111</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0.409722222222222</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
